--- a/Execute/Testing Execute Stage PART2.xlsx
+++ b/Execute/Testing Execute Stage PART2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CCE\Year 3 - Senior 1\Semester 2\Arch\Project\Repo\Architecture-Project\Execute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058F600-07DA-4325-B2C9-89F0B707693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD123FA-D662-408C-B392-804CEC3D6A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F3EB091-F05C-4620-9C32-1374603C408F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="106">
   <si>
     <t>What we are testing</t>
   </si>
@@ -151,9 +151,6 @@
     <t>"001"</t>
   </si>
   <si>
-    <t>"101"</t>
-  </si>
-  <si>
     <t>"000"</t>
   </si>
   <si>
@@ -178,33 +175,12 @@
     <t>16# F9BE0246</t>
   </si>
   <si>
-    <t>16# 08888888</t>
-  </si>
-  <si>
-    <t>16# 0123579B</t>
-  </si>
-  <si>
-    <t>16#01214121</t>
-  </si>
-  <si>
-    <t>16#00000001</t>
-  </si>
-  <si>
-    <t>16# 00000003</t>
-  </si>
-  <si>
     <t>"11111111"</t>
   </si>
   <si>
-    <t>16# 111111111</t>
-  </si>
-  <si>
     <t>"22222222"</t>
   </si>
   <si>
-    <t>16# 33333333</t>
-  </si>
-  <si>
     <t>16# 07654322</t>
   </si>
   <si>
@@ -365,6 +341,18 @@
   </si>
   <si>
     <t>RTI</t>
+  </si>
+  <si>
+    <t>16#00412345</t>
+  </si>
+  <si>
+    <t>16#00212345</t>
+  </si>
+  <si>
+    <t>16#1214121</t>
+  </si>
+  <si>
+    <t>16#0123456A</t>
   </si>
 </sst>
 </file>
@@ -551,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,29 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -611,6 +581,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +919,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,29 +951,29 @@
     <col min="25" max="25" width="18.44140625" customWidth="1"/>
     <col min="26" max="26" width="17.33203125" customWidth="1"/>
     <col min="27" max="27" width="18.44140625" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
       <c r="S1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1084,8 +1075,8 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>84</v>
+      <c r="A3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>33</v>
@@ -1094,13 +1085,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>37</v>
@@ -1108,14 +1099,14 @@
       <c r="H3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>58</v>
+      <c r="I3" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
@@ -1139,10 +1130,10 @@
         <v>33</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
@@ -1151,27 +1142,27 @@
         <v>34</v>
       </c>
       <c r="X3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>85</v>
+      <c r="A4" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>33</v>
@@ -1180,13 +1171,13 @@
         <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>37</v>
@@ -1194,14 +1185,14 @@
       <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>59</v>
+      <c r="I4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="8">
         <v>0</v>
@@ -1225,39 +1216,39 @@
         <v>33</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="V4" s="8">
         <v>0</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="X4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC4" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>86</v>
+      <c r="A5" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>33</v>
@@ -1266,13 +1257,13 @@
         <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>37</v>
@@ -1280,14 +1271,14 @@
       <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>60</v>
+      <c r="I5" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="8">
         <v>0</v>
@@ -1308,42 +1299,42 @@
         <v>0</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="T5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="X5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC5" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>87</v>
+      <c r="A6" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>33</v>
@@ -1352,13 +1343,13 @@
         <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>37</v>
@@ -1366,14 +1357,14 @@
       <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>61</v>
+      <c r="I6" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -1394,42 +1385,42 @@
         <v>0</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="V6" s="8">
         <v>0</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="X6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>88</v>
+      <c r="A7" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>33</v>
@@ -1438,13 +1429,13 @@
         <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>37</v>
@@ -1452,14 +1443,14 @@
       <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>62</v>
+      <c r="I7" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
@@ -1483,39 +1474,39 @@
         <v>33</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="V7" s="8">
         <v>0</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC7" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>89</v>
+      <c r="A8" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>33</v>
@@ -1524,13 +1515,13 @@
         <v>34</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>37</v>
@@ -1538,14 +1529,14 @@
       <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>63</v>
+      <c r="I8" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
@@ -1569,39 +1560,39 @@
         <v>33</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="18">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="12">
         <v>0</v>
       </c>
       <c r="AA8" s="8">
         <v>0</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>90</v>
+      <c r="A9" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -1610,13 +1601,13 @@
         <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>37</v>
@@ -1624,14 +1615,14 @@
       <c r="H9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>64</v>
+      <c r="I9" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -1655,39 +1646,39 @@
         <v>33</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="V9" s="8">
         <v>0</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="X9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>91</v>
+      <c r="A10" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>33</v>
@@ -1696,13 +1687,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>37</v>
@@ -1710,14 +1701,14 @@
       <c r="H10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>65</v>
+      <c r="I10" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
@@ -1741,39 +1732,39 @@
         <v>33</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="V10" s="8">
         <v>0</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="X10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>92</v>
+      <c r="A11" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>33</v>
@@ -1782,13 +1773,13 @@
         <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>37</v>
@@ -1796,14 +1787,14 @@
       <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>66</v>
+      <c r="I11" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -1827,39 +1818,39 @@
         <v>33</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="V11" s="8">
         <v>0</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="X11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>93</v>
+      <c r="A12" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>33</v>
@@ -1868,13 +1859,13 @@
         <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>37</v>
@@ -1882,14 +1873,14 @@
       <c r="H12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>67</v>
+      <c r="I12" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -1913,10 +1904,10 @@
         <v>33</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="V12" s="8">
         <v>0</v>
@@ -1925,26 +1916,26 @@
         <v>34</v>
       </c>
       <c r="X12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1952,40 +1943,22 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="18"/>
-      <c r="S13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="I13" s="12"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>94</v>
+      <c r="A14" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>33</v>
@@ -1994,13 +1967,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>37</v>
@@ -2008,14 +1981,14 @@
       <c r="H14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>68</v>
+      <c r="I14" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
@@ -2036,41 +2009,41 @@
         <v>0</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="V14" s="8">
         <v>0</v>
       </c>
-      <c r="W14" s="8" t="s">
-        <v>50</v>
+      <c r="W14" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="X14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC14" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2078,7 +2051,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -2087,39 +2060,21 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="S15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="8">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>95</v>
+      <c r="A16" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>33</v>
@@ -2128,13 +2083,13 @@
         <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>37</v>
@@ -2142,14 +2097,14 @@
       <c r="H16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>69</v>
+      <c r="I16" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
@@ -2173,38 +2128,38 @@
         <v>33</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="V16" s="8">
         <v>0</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="X16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2212,7 +2167,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -2221,39 +2176,21 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="S17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="8">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>96</v>
+      <c r="A18" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>33</v>
@@ -2262,13 +2199,13 @@
         <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>37</v>
@@ -2276,14 +2213,14 @@
       <c r="H18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>70</v>
+      <c r="I18" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
@@ -2307,38 +2244,38 @@
         <v>33</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="V18" s="8">
         <v>0</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="X18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="AC18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2346,7 +2283,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2357,19 +2294,19 @@
       <c r="Q19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="13"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="18"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>97</v>
+      <c r="A20" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>33</v>
@@ -2378,13 +2315,13 @@
         <v>34</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>37</v>
@@ -2392,14 +2329,14 @@
       <c r="H20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>71</v>
+      <c r="I20" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="8">
         <v>0</v>
@@ -2423,33 +2360,33 @@
         <v>33</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="V20" s="8">
         <v>0</v>
       </c>
-      <c r="W20" s="22"/>
+      <c r="W20" s="16"/>
       <c r="X20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC20" s="22"/>
+      <c r="AC20" s="16"/>
     </row>
     <row r="21" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
-        <v>98</v>
+      <c r="A21" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>33</v>
@@ -2458,13 +2395,13 @@
         <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>37</v>
@@ -2472,14 +2409,14 @@
       <c r="H21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>72</v>
+      <c r="I21" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="8">
         <v>0</v>
@@ -2503,33 +2440,33 @@
         <v>33</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="V21" s="8">
         <v>0</v>
       </c>
-      <c r="W21" s="22"/>
+      <c r="W21" s="16"/>
       <c r="X21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC21" s="22"/>
+      <c r="AC21" s="16"/>
     </row>
     <row r="22" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>99</v>
+      <c r="A22" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>33</v>
@@ -2538,13 +2475,13 @@
         <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>37</v>
@@ -2552,14 +2489,14 @@
       <c r="H22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>73</v>
+      <c r="I22" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="8">
         <v>0</v>
@@ -2583,33 +2520,33 @@
         <v>33</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>73</v>
+        <v>42</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="V22" s="8">
         <v>0</v>
       </c>
-      <c r="W22" s="22"/>
+      <c r="W22" s="16"/>
       <c r="X22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC22" s="22"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>100</v>
+      <c r="A23" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>33</v>
@@ -2618,13 +2555,13 @@
         <v>34</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>37</v>
@@ -2632,14 +2569,14 @@
       <c r="H23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>74</v>
+      <c r="I23" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="8">
         <v>0</v>
@@ -2663,32 +2600,32 @@
         <v>33</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="V23" s="8">
         <v>0</v>
       </c>
-      <c r="W23" s="22"/>
+      <c r="W23" s="16"/>
       <c r="X23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC23" s="22"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2696,7 +2633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -2707,19 +2644,19 @@
       <c r="Q24" s="8"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
-      <c r="U24" s="13"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="22"/>
+      <c r="W24" s="16"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="13"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="18"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
-      <c r="AC24" s="22"/>
+      <c r="AC24" s="16"/>
     </row>
     <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>101</v>
+      <c r="A25" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>33</v>
@@ -2728,13 +2665,13 @@
         <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>37</v>
@@ -2742,14 +2679,14 @@
       <c r="H25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>75</v>
+      <c r="I25" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="8">
         <v>0</v>
@@ -2773,32 +2710,32 @@
         <v>33</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="22"/>
+      <c r="W25" s="16"/>
       <c r="X25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC25" s="22"/>
+      <c r="AC25" s="16"/>
     </row>
     <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2806,7 +2743,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -2817,19 +2754,19 @@
       <c r="Q26" s="8"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
-      <c r="U26" s="13"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="22"/>
+      <c r="W26" s="16"/>
       <c r="X26" s="8"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
       <c r="AB26" s="8"/>
-      <c r="AC26" s="22"/>
+      <c r="AC26" s="16"/>
     </row>
     <row r="27" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>102</v>
+      <c r="A27" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>33</v>
@@ -2838,13 +2775,13 @@
         <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>37</v>
@@ -2852,14 +2789,14 @@
       <c r="H27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>76</v>
+      <c r="I27" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="8">
         <v>0</v>
@@ -2883,33 +2820,33 @@
         <v>33</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="22"/>
+      <c r="W27" s="16"/>
       <c r="X27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC27" s="22"/>
+      <c r="AC27" s="16"/>
     </row>
     <row r="28" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>103</v>
+      <c r="A28" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>33</v>
@@ -2918,13 +2855,13 @@
         <v>34</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>37</v>
@@ -2932,14 +2869,14 @@
       <c r="H28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>77</v>
+      <c r="I28" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="8">
         <v>0</v>
@@ -2963,33 +2900,33 @@
         <v>33</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="22"/>
+      <c r="W28" s="16"/>
       <c r="X28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC28" s="22"/>
+      <c r="AC28" s="16"/>
     </row>
     <row r="29" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>104</v>
+      <c r="A29" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>33</v>
@@ -2998,13 +2935,13 @@
         <v>34</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>37</v>
@@ -3012,14 +2949,14 @@
       <c r="H29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>78</v>
+      <c r="I29" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="8">
         <v>0</v>
@@ -3043,33 +2980,33 @@
         <v>33</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="V29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="22"/>
+      <c r="W29" s="16"/>
       <c r="X29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC29" s="22"/>
+      <c r="AC29" s="16"/>
     </row>
     <row r="30" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>105</v>
+      <c r="A30" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>33</v>
@@ -3078,13 +3015,13 @@
         <v>34</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>37</v>
@@ -3092,14 +3029,14 @@
       <c r="H30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>79</v>
+      <c r="I30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L30" s="8">
         <v>0</v>
@@ -3123,33 +3060,33 @@
         <v>33</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="22"/>
+      <c r="W30" s="16"/>
       <c r="X30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC30" s="22"/>
+      <c r="AC30" s="16"/>
     </row>
     <row r="31" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
-        <v>106</v>
+      <c r="A31" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>33</v>
@@ -3158,13 +3095,13 @@
         <v>34</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>37</v>
@@ -3172,14 +3109,14 @@
       <c r="H31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>80</v>
+      <c r="I31" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" s="8">
         <v>0</v>
@@ -3203,33 +3140,33 @@
         <v>33</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>80</v>
+        <v>42</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="V31" s="8">
         <v>0</v>
       </c>
-      <c r="W31" s="22"/>
+      <c r="W31" s="16"/>
       <c r="X31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC31" s="22"/>
+      <c r="AC31" s="16"/>
     </row>
     <row r="32" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>107</v>
+      <c r="A32" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>33</v>
@@ -3238,13 +3175,13 @@
         <v>34</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>37</v>
@@ -3252,14 +3189,14 @@
       <c r="H32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>81</v>
+      <c r="I32" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="8">
         <v>0</v>
@@ -3283,33 +3220,33 @@
         <v>33</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U32" s="11" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="22"/>
+      <c r="W32" s="16"/>
       <c r="X32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC32" s="22"/>
+      <c r="AC32" s="16"/>
     </row>
     <row r="33" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>108</v>
+      <c r="A33" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>33</v>
@@ -3318,13 +3255,13 @@
         <v>34</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>37</v>
@@ -3332,14 +3269,14 @@
       <c r="H33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>82</v>
+      <c r="I33" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="8">
         <v>0</v>
@@ -3363,33 +3300,33 @@
         <v>33</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="22"/>
+      <c r="W33" s="16"/>
       <c r="X33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC33" s="22"/>
+      <c r="AC33" s="16"/>
     </row>
     <row r="34" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>109</v>
+      <c r="A34" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>33</v>
@@ -3398,13 +3335,13 @@
         <v>34</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>37</v>
@@ -3412,14 +3349,14 @@
       <c r="H34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>83</v>
+      <c r="I34" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="8">
         <v>0</v>
@@ -3443,29 +3380,29 @@
         <v>33</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="V34" s="8">
         <v>0</v>
       </c>
-      <c r="W34" s="22"/>
+      <c r="W34" s="16"/>
       <c r="X34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC34" s="22"/>
+      <c r="AC34" s="16"/>
     </row>
     <row r="35" spans="1:29" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
@@ -3478,13 +3415,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>37</v>
@@ -3492,11 +3429,11 @@
       <c r="H35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>58</v>
+      <c r="I35" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>37</v>
@@ -3508,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>35</v>
@@ -3523,29 +3460,29 @@
         <v>33</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="V35" s="8">
         <v>0</v>
       </c>
-      <c r="W35" s="22"/>
+      <c r="W35" s="16"/>
       <c r="X35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC35" s="22"/>
+      <c r="AC35" s="16"/>
     </row>
     <row r="36" spans="1:29" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -3558,13 +3495,13 @@
         <v>34</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>37</v>
@@ -3572,11 +3509,11 @@
       <c r="H36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>58</v>
+      <c r="I36" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>37</v>
@@ -3588,10 +3525,10 @@
         <v>1</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>35</v>
@@ -3603,29 +3540,29 @@
         <v>33</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="V36" s="8">
         <v>0</v>
       </c>
-      <c r="W36" s="22"/>
+      <c r="W36" s="16"/>
       <c r="X36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC36" s="22"/>
+      <c r="AC36" s="16"/>
     </row>
     <row r="37" spans="1:29" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
@@ -3638,13 +3575,13 @@
         <v>34</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>37</v>
@@ -3653,10 +3590,10 @@
         <v>36</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>37</v>
@@ -3668,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>35</v>
@@ -3683,32 +3620,41 @@
         <v>33</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="V37" s="8">
         <v>0</v>
       </c>
-      <c r="W37" s="22"/>
+      <c r="W37" s="16"/>
       <c r="X37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC37" s="22"/>
+      <c r="AC37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
     <mergeCell ref="AA25:AA26"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="Z12:Z13"/>
@@ -3725,15 +3671,6 @@
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="U12:U13"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
